--- a/Shiny/MIDAS_AMU/outputs/data_source_summary_table.xlsx
+++ b/Shiny/MIDAS_AMU/outputs/data_source_summary_table.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -401,7 +401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75.5</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>495</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>433</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2015-2019</t>
+          <t>2010-2019</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>45.74</t>
+          <t>47.7</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>48.79</t>
+          <t>48.88</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.26</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>94.69</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>5.27</t>
         </is>
       </c>
     </row>
